--- a/public/StructureDefinition-PdrFinancialReceipt.xlsx
+++ b/public/StructureDefinition-PdrFinancialReceipt.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T09:06:11-05:00</t>
+    <t>2022-04-07T10:16:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Financial receipt, based off the Claim resource.</t>
+    <t>Financial receipt for over-the-counter (OTC) purchases.  Based off the Claim resource.</t>
   </si>
   <si>
     <t>Purpose</t>
